--- a/RUDN/Importance/Varible_class_in_Southern Asia.xlsx
+++ b/RUDN/Importance/Varible_class_in_Southern Asia.xlsx
@@ -14,12 +14,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
 </sst>
 </file>
@@ -377,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6078431372549019</v>
+        <v>0.2394366264343262</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -401,7 +494,255 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.392156862745098</v>
+        <v>0.2018779367208481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1877934336662292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.09859155118465424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.04694835841655731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.03755868598818779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.01877934299409389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.01877934299409389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.01877934299409389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.009389671497046947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.009389671497046947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.009389671497046947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.009389671497046947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.004694835748523474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.004694835748523474</v>
       </c>
     </row>
   </sheetData>
